--- a/src/main/resources/UserData_Copy.xlsx
+++ b/src/main/resources/UserData_Copy.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="25600" windowHeight="9700"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="LoginData" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="TestMapping" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="EmailList" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="DeviceList-Version" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="DeviceList_make" sheetId="5" r:id="rId8"/>
+    <sheet name="LoginData" sheetId="1" r:id="rId1"/>
+    <sheet name="TestMapping" sheetId="2" r:id="rId2"/>
+    <sheet name="EmailList" sheetId="3" r:id="rId3"/>
+    <sheet name="DeviceList-Version" sheetId="4" r:id="rId4"/>
+    <sheet name="DeviceList_make" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205">
   <si>
     <t>Usertype</t>
   </si>
@@ -293,20 +296,7 @@
     <t>Email-id</t>
   </si>
   <si>
-    <t xml:space="preserve">imran.sayyed@peopleinteractive.in
-</t>
-  </si>
-  <si>
-    <t>prachi.walawalkar@peopleinteractive.in</t>
-  </si>
-  <si>
-    <t>panchsheela.k@peopleinteractive.in</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sagar.kunder@peopleinteractive.in</t>
-  </si>
-  <si>
-    <t>yatin.m@peopleinteractive.in</t>
+    <t>sayyedimran.mohd@gmail.com</t>
   </si>
   <si>
     <t>SAMSUNG_S7Edge_Android_6.0.1_64549</t>
@@ -648,87 +638,257 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="32">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF0D1117"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0D1117"/>
-      <name val="Cambria"/>
+      <name val="SFMono-Regular"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF0D1117"/>
-      <name val="SFMono-Regular"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF202124"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE8F2A1"/>
-        <bgColor rgb="FFE8F2A1"/>
+        <fgColor rgb="FF76A5AF"/>
+        <bgColor rgb="FF76A5AF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6D9EEB"/>
+        <bgColor rgb="FF6D9EEB"/>
       </patternFill>
     </fill>
     <fill>
@@ -739,31 +899,217 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9FC5E8"/>
+        <bgColor rgb="FF9FC5E8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF4285F4"/>
         <bgColor rgb="FF4285F4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9FC5E8"/>
-        <bgColor rgb="FF9FC5E8"/>
+        <fgColor rgb="FFE8F2A1"/>
+        <bgColor rgb="FFE8F2A1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6D9EEB"/>
-        <bgColor rgb="FF6D9EEB"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF76A5AF"/>
-        <bgColor rgb="FF76A5AF"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
-    <border/>
+  <borders count="10">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -777,130 +1123,366 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="43" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Accent2" xfId="16" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="17" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="18" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="20" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="23" builtinId="42"/>
+    <cellStyle name="Total" xfId="24" builtinId="25"/>
+    <cellStyle name="Output" xfId="25" builtinId="21"/>
+    <cellStyle name="Currency" xfId="26" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38"/>
+    <cellStyle name="Note" xfId="28" builtinId="10"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="30" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Good" xfId="32" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="33" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="34" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="35" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="36" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="37" builtinId="50"/>
+    <cellStyle name="Title" xfId="38" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="39" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="40" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9"/>
+    <cellStyle name="20% - Accent2" xfId="42" builtinId="34"/>
+    <cellStyle name="Link" xfId="43" builtinId="8"/>
+    <cellStyle name="Heading 2" xfId="44" builtinId="17"/>
+    <cellStyle name="Comma" xfId="45" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="46" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="47" builtinId="40"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1090,39 +1672,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D997"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="16.43"/>
-    <col customWidth="1" min="2" max="2" width="34.57"/>
-    <col customWidth="1" min="3" max="6" width="15.43"/>
+    <col min="1" max="1" width="16.4285714285714" customWidth="1"/>
+    <col min="2" max="2" width="34.5714285714286" customWidth="1"/>
+    <col min="3" max="6" width="15.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1136,7 +1720,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1150,11 +1734,11 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" ht="15.75" customHeight="1" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -1164,7 +1748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" ht="15.75" customHeight="1" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1178,7 +1762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" ht="15.75" customHeight="1" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
@@ -1192,7 +1776,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" ht="15.75" customHeight="1" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
@@ -1206,7 +1790,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" ht="15.75" customHeight="1" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -1220,7 +1804,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" ht="15.75" customHeight="1" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1234,7 +1818,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" ht="15.75" customHeight="1" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1248,7 +1832,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" ht="15.75" customHeight="1" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1262,7 +1846,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" ht="15.75" customHeight="1" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1276,17 +1860,17 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="13" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2275,1903 +2859,1903 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.29"/>
-    <col customWidth="1" min="2" max="2" width="16.43"/>
-    <col customWidth="1" min="3" max="3" width="14.86"/>
-    <col customWidth="1" min="4" max="4" width="14.71"/>
-    <col customWidth="1" min="5" max="6" width="15.43"/>
+    <col min="1" max="1" width="44.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="16.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="14.8571428571429" customWidth="1"/>
+    <col min="4" max="4" width="14.7142857142857" customWidth="1"/>
+    <col min="5" max="6" width="15.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A1" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="8" t="s">
+    <row r="2" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A2" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="8" t="s">
+    <row r="3" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="8" t="s">
+    <row r="4" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A4" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="8" t="s">
+    <row r="5" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="8" t="s">
+    <row r="6" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
+    <row r="7" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8" t="s">
+    <row r="8" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
+    <row r="10" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
+    <row r="11" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A11" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
+    <row r="12" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A12" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
+    <row r="13" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A13" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
+    <row r="14" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A14" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
+    <row r="15" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A15" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
+    <row r="16" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A16" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
+    <row r="17" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A17" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
+    <row r="18" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A18" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
+    <row r="19" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
+    <row r="20" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
+    <row r="21" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A21" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
+    <row r="22" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
+    <row r="23" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
+    <row r="24" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A24" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
+    <row r="25" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A25" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
+    <row r="26" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A26" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
+    <row r="27" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A27" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
+    <row r="28" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A28" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8" t="s">
+    <row r="29" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
+    <row r="30" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A30" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8" t="s">
+    <row r="31" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A31" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="8" t="s">
+    <row r="32" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A32" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="s">
+    <row r="33" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A33" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="8" t="s">
+    <row r="34" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A34" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="8" t="s">
+    <row r="35" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A35" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="8" t="s">
+    <row r="36" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A36" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="8" t="s">
+    <row r="37" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="8" t="s">
+    <row r="38" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A38" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="9" t="s">
+    <row r="39" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A39" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="18" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="8" t="s">
+    <row r="40" ht="15.75" customHeight="1" spans="1:4">
+      <c r="A40" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="10" t="s">
+    <row r="41" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A41" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="18" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="8" t="s">
+    <row r="42" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A42" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D42" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="8" t="s">
+    <row r="43" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="8" t="s">
+    <row r="44" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A44" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="18" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" ht="12.75" customHeight="1">
-      <c r="A45" s="10" t="s">
+    <row r="45" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A45" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="8" t="s">
+    <row r="46" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A46" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="11" t="s">
+    <row r="47" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A47" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="8" t="s">
+    <row r="48" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A48" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="8" t="s">
+    <row r="49" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A49" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="12"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="12"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="12"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="12"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="12"/>
-      <c r="D58" s="12"/>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="12"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="12"/>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="12"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="12"/>
-      <c r="D61" s="12"/>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="12"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="12"/>
-      <c r="D62" s="12"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="12"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="12"/>
-      <c r="D63" s="12"/>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="12"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="12"/>
-      <c r="D64" s="12"/>
-    </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="12"/>
-      <c r="D65" s="12"/>
-    </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="12"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="12"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-    </row>
-    <row r="68" ht="12.75" customHeight="1">
-      <c r="A68" s="12"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" ht="12.75" customHeight="1">
-      <c r="A69" s="12"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-    </row>
-    <row r="70" ht="12.75" customHeight="1">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-    </row>
-    <row r="71" ht="12.75" customHeight="1">
-      <c r="A71" s="12"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-    </row>
-    <row r="72" ht="12.75" customHeight="1">
-      <c r="A72" s="12"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-    </row>
-    <row r="73" ht="12.75" customHeight="1">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-    </row>
-    <row r="74" ht="12.75" customHeight="1">
-      <c r="A74" s="12"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-    </row>
-    <row r="75" ht="12.75" customHeight="1">
-      <c r="A75" s="12"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-    </row>
-    <row r="76" ht="12.75" customHeight="1">
-      <c r="A76" s="12"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-    </row>
-    <row r="77" ht="12.75" customHeight="1">
-      <c r="A77" s="12"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-    </row>
-    <row r="78" ht="12.75" customHeight="1">
-      <c r="A78" s="12"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-    </row>
-    <row r="79" ht="12.75" customHeight="1">
-      <c r="A79" s="12"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-    </row>
-    <row r="80" ht="12.75" customHeight="1">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-    </row>
-    <row r="81" ht="12.75" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-    </row>
-    <row r="82" ht="12.75" customHeight="1">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-    </row>
-    <row r="83" ht="12.75" customHeight="1">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-    </row>
-    <row r="84" ht="12.75" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="12"/>
-      <c r="D84" s="12"/>
-    </row>
-    <row r="85" ht="12.75" customHeight="1">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="12"/>
-      <c r="D85" s="12"/>
-    </row>
-    <row r="86" ht="12.75" customHeight="1">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-    </row>
-    <row r="87" ht="12.75" customHeight="1">
-      <c r="A87" s="12"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="12"/>
-      <c r="D87" s="12"/>
-    </row>
-    <row r="88" ht="12.75" customHeight="1">
-      <c r="A88" s="12"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="12"/>
-      <c r="D88" s="12"/>
-    </row>
-    <row r="89" ht="12.75" customHeight="1">
-      <c r="A89" s="12"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12"/>
-    </row>
-    <row r="90" ht="12.75" customHeight="1">
-      <c r="A90" s="12"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="12"/>
-      <c r="D90" s="12"/>
-    </row>
-    <row r="91" ht="12.75" customHeight="1">
-      <c r="A91" s="12"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="12"/>
-      <c r="D91" s="12"/>
-    </row>
-    <row r="92" ht="12.75" customHeight="1">
-      <c r="A92" s="12"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="12"/>
-    </row>
-    <row r="93" ht="12.75" customHeight="1">
-      <c r="A93" s="12"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="12"/>
-      <c r="D93" s="12"/>
-    </row>
-    <row r="94" ht="12.75" customHeight="1">
-      <c r="A94" s="12"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="12"/>
-      <c r="D94" s="12"/>
-    </row>
-    <row r="95" ht="12.75" customHeight="1">
-      <c r="A95" s="12"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="12"/>
-      <c r="D95" s="12"/>
-    </row>
-    <row r="96" ht="12.75" customHeight="1">
-      <c r="A96" s="12"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-    </row>
-    <row r="97" ht="12.75" customHeight="1">
-      <c r="A97" s="12"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-    </row>
-    <row r="98" ht="12.75" customHeight="1">
-      <c r="A98" s="12"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-    </row>
-    <row r="99" ht="12.75" customHeight="1">
-      <c r="A99" s="12"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="12"/>
-      <c r="D99" s="12"/>
-    </row>
-    <row r="100" ht="12.75" customHeight="1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="12"/>
-    </row>
-    <row r="101" ht="12.75" customHeight="1">
-      <c r="A101" s="12"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="12"/>
-    </row>
-    <row r="102" ht="12.75" customHeight="1">
-      <c r="A102" s="12"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="12"/>
-      <c r="D102" s="12"/>
-    </row>
-    <row r="103" ht="12.75" customHeight="1">
-      <c r="A103" s="12"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="12"/>
-      <c r="D103" s="12"/>
-    </row>
-    <row r="104" ht="12.75" customHeight="1">
-      <c r="A104" s="12"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-    </row>
-    <row r="105" ht="12.75" customHeight="1">
-      <c r="A105" s="12"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-    </row>
-    <row r="106" ht="12.75" customHeight="1">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-    </row>
-    <row r="107" ht="12.75" customHeight="1">
-      <c r="A107" s="12"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-    </row>
-    <row r="108" ht="12.75" customHeight="1">
-      <c r="A108" s="12"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-    </row>
-    <row r="109" ht="12.75" customHeight="1">
-      <c r="A109" s="12"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-    </row>
-    <row r="110" ht="12.75" customHeight="1">
-      <c r="A110" s="12"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12"/>
-    </row>
-    <row r="111" ht="12.75" customHeight="1">
-      <c r="A111" s="12"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12"/>
-    </row>
-    <row r="112" ht="12.75" customHeight="1">
-      <c r="A112" s="12"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12"/>
-    </row>
-    <row r="113" ht="12.75" customHeight="1">
-      <c r="A113" s="12"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12"/>
-    </row>
-    <row r="114" ht="12.75" customHeight="1">
-      <c r="A114" s="12"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12"/>
-    </row>
-    <row r="115" ht="12.75" customHeight="1">
-      <c r="A115" s="12"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-    </row>
-    <row r="116" ht="12.75" customHeight="1">
-      <c r="A116" s="12"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-    </row>
-    <row r="117" ht="12.75" customHeight="1">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12"/>
-      <c r="D117" s="12"/>
-    </row>
-    <row r="118" ht="12.75" customHeight="1">
-      <c r="A118" s="12"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12"/>
-      <c r="D118" s="12"/>
-    </row>
-    <row r="119" ht="12.75" customHeight="1">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-      <c r="D119" s="12"/>
-    </row>
-    <row r="120" ht="12.75" customHeight="1">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-    </row>
-    <row r="121" ht="12.75" customHeight="1">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-    </row>
-    <row r="122" ht="12.75" customHeight="1">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-    </row>
-    <row r="123" ht="12.75" customHeight="1">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-    </row>
-    <row r="124" ht="12.75" customHeight="1">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-    </row>
-    <row r="125" ht="12.75" customHeight="1">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-    </row>
-    <row r="126" ht="12.75" customHeight="1">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-    </row>
-    <row r="127" ht="12.75" customHeight="1">
-      <c r="A127" s="12"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="12"/>
-      <c r="D127" s="12"/>
-    </row>
-    <row r="128" ht="12.75" customHeight="1">
-      <c r="A128" s="12"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="12"/>
-      <c r="D128" s="12"/>
-    </row>
-    <row r="129" ht="12.75" customHeight="1">
-      <c r="A129" s="12"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="12"/>
-      <c r="D129" s="12"/>
-    </row>
-    <row r="130" ht="12.75" customHeight="1">
-      <c r="A130" s="12"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12"/>
-      <c r="D130" s="12"/>
-    </row>
-    <row r="131" ht="12.75" customHeight="1">
-      <c r="A131" s="12"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="12"/>
-      <c r="D131" s="12"/>
-    </row>
-    <row r="132" ht="12.75" customHeight="1">
-      <c r="A132" s="12"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-    </row>
-    <row r="133" ht="12.75" customHeight="1">
-      <c r="A133" s="12"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-    </row>
-    <row r="134" ht="12.75" customHeight="1">
-      <c r="A134" s="12"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-    </row>
-    <row r="135" ht="12.75" customHeight="1">
-      <c r="A135" s="12"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-    </row>
-    <row r="136" ht="12.75" customHeight="1">
-      <c r="A136" s="12"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-    </row>
-    <row r="137" ht="12.75" customHeight="1">
-      <c r="A137" s="12"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-    </row>
-    <row r="138" ht="12.75" customHeight="1">
-      <c r="A138" s="12"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="12"/>
-      <c r="D138" s="12"/>
-    </row>
-    <row r="139" ht="12.75" customHeight="1">
-      <c r="A139" s="12"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="12"/>
-      <c r="D139" s="12"/>
-    </row>
-    <row r="140" ht="12.75" customHeight="1">
-      <c r="A140" s="12"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-    </row>
-    <row r="141" ht="12.75" customHeight="1">
-      <c r="A141" s="12"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12"/>
-      <c r="D141" s="12"/>
-    </row>
-    <row r="142" ht="12.75" customHeight="1">
-      <c r="A142" s="12"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="12"/>
-      <c r="D142" s="12"/>
-    </row>
-    <row r="143" ht="12.75" customHeight="1">
-      <c r="A143" s="12"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="12"/>
-      <c r="D143" s="12"/>
-    </row>
-    <row r="144" ht="12.75" customHeight="1">
-      <c r="A144" s="12"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-    </row>
-    <row r="145" ht="12.75" customHeight="1">
-      <c r="A145" s="12"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="12"/>
-      <c r="D145" s="12"/>
-    </row>
-    <row r="146" ht="12.75" customHeight="1">
-      <c r="A146" s="12"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="12"/>
-      <c r="D146" s="12"/>
-    </row>
-    <row r="147" ht="12.75" customHeight="1">
-      <c r="A147" s="12"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="12"/>
-      <c r="D147" s="12"/>
-    </row>
-    <row r="148" ht="12.75" customHeight="1">
-      <c r="A148" s="12"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="12"/>
-      <c r="D148" s="12"/>
-    </row>
-    <row r="149" ht="12.75" customHeight="1">
-      <c r="A149" s="12"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="12"/>
-      <c r="D149" s="12"/>
-    </row>
-    <row r="150" ht="12.75" customHeight="1">
-      <c r="A150" s="12"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="12"/>
-      <c r="D150" s="12"/>
-    </row>
-    <row r="151" ht="12.75" customHeight="1">
-      <c r="A151" s="12"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="12"/>
-      <c r="D151" s="12"/>
-    </row>
-    <row r="152" ht="12.75" customHeight="1">
-      <c r="A152" s="12"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="12"/>
-      <c r="D152" s="12"/>
-    </row>
-    <row r="153" ht="12.75" customHeight="1">
-      <c r="A153" s="12"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="12"/>
-      <c r="D153" s="12"/>
-    </row>
-    <row r="154" ht="12.75" customHeight="1">
-      <c r="A154" s="12"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-    </row>
-    <row r="155" ht="12.75" customHeight="1">
-      <c r="A155" s="12"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="12"/>
-      <c r="D155" s="12"/>
-    </row>
-    <row r="156" ht="12.75" customHeight="1">
-      <c r="A156" s="12"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="12"/>
-      <c r="D156" s="12"/>
-    </row>
-    <row r="157" ht="12.75" customHeight="1">
-      <c r="A157" s="12"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="12"/>
-      <c r="D157" s="12"/>
-    </row>
-    <row r="158" ht="12.75" customHeight="1">
-      <c r="A158" s="12"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="12"/>
-    </row>
-    <row r="159" ht="12.75" customHeight="1">
-      <c r="A159" s="12"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="12"/>
-    </row>
-    <row r="160" ht="12.75" customHeight="1">
-      <c r="A160" s="12"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="12"/>
-    </row>
-    <row r="161" ht="12.75" customHeight="1">
-      <c r="A161" s="12"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="12"/>
-    </row>
-    <row r="162" ht="12.75" customHeight="1">
-      <c r="A162" s="12"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="12"/>
-    </row>
-    <row r="163" ht="12.75" customHeight="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-    </row>
-    <row r="164" ht="12.75" customHeight="1">
-      <c r="A164" s="12"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="12"/>
-    </row>
-    <row r="165" ht="12.75" customHeight="1">
-      <c r="A165" s="12"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="12"/>
-      <c r="D165" s="12"/>
-    </row>
-    <row r="166" ht="12.75" customHeight="1">
-      <c r="A166" s="12"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="12"/>
-      <c r="D166" s="12"/>
-    </row>
-    <row r="167" ht="12.75" customHeight="1">
-      <c r="A167" s="12"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-    </row>
-    <row r="168" ht="12.75" customHeight="1">
-      <c r="A168" s="12"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="12"/>
-      <c r="D168" s="12"/>
-    </row>
-    <row r="169" ht="12.75" customHeight="1">
-      <c r="A169" s="12"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="12"/>
-      <c r="D169" s="12"/>
-    </row>
-    <row r="170" ht="12.75" customHeight="1">
-      <c r="A170" s="12"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="12"/>
-      <c r="D170" s="12"/>
-    </row>
-    <row r="171" ht="12.75" customHeight="1">
-      <c r="A171" s="12"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="12"/>
-      <c r="D171" s="12"/>
-    </row>
-    <row r="172" ht="12.75" customHeight="1">
-      <c r="A172" s="12"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="12"/>
-      <c r="D172" s="12"/>
-    </row>
-    <row r="173" ht="12.75" customHeight="1">
-      <c r="A173" s="12"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="12"/>
-      <c r="D173" s="12"/>
-    </row>
-    <row r="174" ht="12.75" customHeight="1">
-      <c r="A174" s="12"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="12"/>
-      <c r="D174" s="12"/>
-    </row>
-    <row r="175" ht="12.75" customHeight="1">
-      <c r="A175" s="12"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="12"/>
-      <c r="D175" s="12"/>
-    </row>
-    <row r="176" ht="12.75" customHeight="1">
-      <c r="A176" s="12"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="12"/>
-      <c r="D176" s="12"/>
-    </row>
-    <row r="177" ht="12.75" customHeight="1">
-      <c r="A177" s="12"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="12"/>
-      <c r="D177" s="12"/>
-    </row>
-    <row r="178" ht="12.75" customHeight="1">
-      <c r="A178" s="12"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="12"/>
-      <c r="D178" s="12"/>
-    </row>
-    <row r="179" ht="12.75" customHeight="1">
-      <c r="A179" s="12"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="12"/>
-      <c r="D179" s="12"/>
-    </row>
-    <row r="180" ht="12.75" customHeight="1">
-      <c r="A180" s="12"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="12"/>
-      <c r="D180" s="12"/>
-    </row>
-    <row r="181" ht="12.75" customHeight="1">
-      <c r="A181" s="12"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="12"/>
-      <c r="D181" s="12"/>
-    </row>
-    <row r="182" ht="12.75" customHeight="1">
-      <c r="A182" s="12"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="12"/>
-      <c r="D182" s="12"/>
-    </row>
-    <row r="183" ht="12.75" customHeight="1">
-      <c r="A183" s="12"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="12"/>
-      <c r="D183" s="12"/>
-    </row>
-    <row r="184" ht="12.75" customHeight="1">
-      <c r="A184" s="12"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="12"/>
-      <c r="D184" s="12"/>
-    </row>
-    <row r="185" ht="12.75" customHeight="1">
-      <c r="A185" s="12"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="12"/>
-      <c r="D185" s="12"/>
-    </row>
-    <row r="186" ht="12.75" customHeight="1">
-      <c r="A186" s="12"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="12"/>
-      <c r="D186" s="12"/>
-    </row>
-    <row r="187" ht="12.75" customHeight="1">
-      <c r="A187" s="12"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="12"/>
-      <c r="D187" s="12"/>
-    </row>
-    <row r="188" ht="12.75" customHeight="1">
-      <c r="A188" s="12"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="12"/>
-      <c r="D188" s="12"/>
-    </row>
-    <row r="189" ht="12.75" customHeight="1">
-      <c r="A189" s="12"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="12"/>
-      <c r="D189" s="12"/>
-    </row>
-    <row r="190" ht="12.75" customHeight="1">
-      <c r="A190" s="12"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="12"/>
-      <c r="D190" s="12"/>
-    </row>
-    <row r="191" ht="12.75" customHeight="1">
-      <c r="A191" s="12"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="12"/>
-      <c r="D191" s="12"/>
-    </row>
-    <row r="192" ht="12.75" customHeight="1">
-      <c r="A192" s="12"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="12"/>
-      <c r="D192" s="12"/>
-    </row>
-    <row r="193" ht="12.75" customHeight="1">
-      <c r="A193" s="12"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="12"/>
-      <c r="D193" s="12"/>
-    </row>
-    <row r="194" ht="12.75" customHeight="1">
-      <c r="A194" s="12"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="12"/>
-      <c r="D194" s="12"/>
-    </row>
-    <row r="195" ht="12.75" customHeight="1">
-      <c r="A195" s="12"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-    </row>
-    <row r="196" ht="12.75" customHeight="1">
-      <c r="A196" s="12"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="12"/>
-      <c r="D196" s="12"/>
-    </row>
-    <row r="197" ht="12.75" customHeight="1">
-      <c r="A197" s="12"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="12"/>
-      <c r="D197" s="12"/>
-    </row>
-    <row r="198" ht="12.75" customHeight="1">
-      <c r="A198" s="12"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="12"/>
-      <c r="D198" s="12"/>
-    </row>
-    <row r="199" ht="12.75" customHeight="1">
-      <c r="A199" s="12"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="12"/>
-      <c r="D199" s="12"/>
-    </row>
-    <row r="200" ht="12.75" customHeight="1">
-      <c r="A200" s="12"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="12"/>
-      <c r="D200" s="12"/>
-    </row>
-    <row r="201" ht="12.75" customHeight="1">
-      <c r="A201" s="12"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="12"/>
-      <c r="D201" s="12"/>
-    </row>
-    <row r="202" ht="12.75" customHeight="1">
-      <c r="A202" s="12"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="12"/>
-      <c r="D202" s="12"/>
-    </row>
-    <row r="203" ht="12.75" customHeight="1">
-      <c r="A203" s="12"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="12"/>
-      <c r="D203" s="12"/>
-    </row>
-    <row r="204" ht="12.75" customHeight="1">
-      <c r="A204" s="12"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="12"/>
-      <c r="D204" s="12"/>
-    </row>
-    <row r="205" ht="12.75" customHeight="1">
-      <c r="A205" s="12"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="12"/>
-      <c r="D205" s="12"/>
-    </row>
-    <row r="206" ht="12.75" customHeight="1">
-      <c r="A206" s="12"/>
-      <c r="B206" s="12"/>
-      <c r="C206" s="12"/>
-      <c r="D206" s="12"/>
-    </row>
-    <row r="207" ht="12.75" customHeight="1">
-      <c r="A207" s="12"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="12"/>
-      <c r="D207" s="12"/>
-    </row>
-    <row r="208" ht="12.75" customHeight="1">
-      <c r="A208" s="12"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="12"/>
-      <c r="D208" s="12"/>
-    </row>
-    <row r="209" ht="12.75" customHeight="1">
-      <c r="A209" s="12"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="12"/>
-      <c r="D209" s="12"/>
-    </row>
-    <row r="210" ht="12.75" customHeight="1">
-      <c r="A210" s="12"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="12"/>
-      <c r="D210" s="12"/>
-    </row>
-    <row r="211" ht="12.75" customHeight="1">
-      <c r="A211" s="12"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="12"/>
-      <c r="D211" s="12"/>
-    </row>
-    <row r="212" ht="12.75" customHeight="1">
-      <c r="A212" s="12"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="12"/>
-      <c r="D212" s="12"/>
-    </row>
-    <row r="213" ht="12.75" customHeight="1">
-      <c r="A213" s="12"/>
-      <c r="B213" s="12"/>
-      <c r="C213" s="12"/>
-      <c r="D213" s="12"/>
-    </row>
-    <row r="214" ht="12.75" customHeight="1">
-      <c r="A214" s="12"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="12"/>
-      <c r="D214" s="12"/>
-    </row>
-    <row r="215" ht="12.75" customHeight="1">
-      <c r="A215" s="12"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="12"/>
-      <c r="D215" s="12"/>
-    </row>
-    <row r="216" ht="12.75" customHeight="1">
-      <c r="A216" s="12"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-    </row>
-    <row r="217" ht="12.75" customHeight="1">
-      <c r="A217" s="12"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="12"/>
-      <c r="D217" s="12"/>
-    </row>
-    <row r="218" ht="12.75" customHeight="1">
-      <c r="A218" s="12"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-    </row>
-    <row r="219" ht="12.75" customHeight="1">
-      <c r="A219" s="12"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-    </row>
-    <row r="220" ht="12.75" customHeight="1">
-      <c r="A220" s="12"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-    </row>
-    <row r="221" ht="12.75" customHeight="1">
-      <c r="A221" s="12"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="12"/>
-      <c r="D221" s="12"/>
-    </row>
-    <row r="222" ht="12.75" customHeight="1">
-      <c r="A222" s="12"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="12"/>
-      <c r="D222" s="12"/>
-    </row>
-    <row r="223" ht="12.75" customHeight="1">
-      <c r="A223" s="12"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="12"/>
-      <c r="D223" s="12"/>
-    </row>
-    <row r="224" ht="12.75" customHeight="1">
-      <c r="A224" s="12"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="12"/>
-      <c r="D224" s="12"/>
-    </row>
-    <row r="225" ht="12.75" customHeight="1">
-      <c r="A225" s="12"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="12"/>
-      <c r="D225" s="12"/>
-    </row>
-    <row r="226" ht="12.75" customHeight="1">
-      <c r="A226" s="12"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="12"/>
-      <c r="D226" s="12"/>
-    </row>
-    <row r="227" ht="12.75" customHeight="1">
-      <c r="A227" s="12"/>
-      <c r="B227" s="12"/>
-      <c r="C227" s="12"/>
-      <c r="D227" s="12"/>
-    </row>
-    <row r="228" ht="12.75" customHeight="1">
-      <c r="A228" s="12"/>
-      <c r="B228" s="12"/>
-      <c r="C228" s="12"/>
-      <c r="D228" s="12"/>
-    </row>
-    <row r="229" ht="12.75" customHeight="1">
-      <c r="A229" s="12"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="12"/>
-      <c r="D229" s="12"/>
-    </row>
-    <row r="230" ht="12.75" customHeight="1">
-      <c r="A230" s="12"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="12"/>
-      <c r="D230" s="12"/>
-    </row>
-    <row r="231" ht="12.75" customHeight="1">
-      <c r="A231" s="12"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="12"/>
-      <c r="D231" s="12"/>
-    </row>
-    <row r="232" ht="12.75" customHeight="1">
-      <c r="A232" s="12"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-    </row>
-    <row r="233" ht="12.75" customHeight="1">
-      <c r="A233" s="12"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-    </row>
-    <row r="234" ht="12.75" customHeight="1">
-      <c r="A234" s="12"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-    </row>
-    <row r="235" ht="12.75" customHeight="1">
-      <c r="A235" s="12"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-    </row>
-    <row r="236" ht="12.75" customHeight="1">
-      <c r="A236" s="12"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-    </row>
-    <row r="237" ht="12.75" customHeight="1">
-      <c r="A237" s="12"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-    </row>
-    <row r="238" ht="12.75" customHeight="1">
-      <c r="A238" s="12"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-    </row>
-    <row r="239" ht="12.75" customHeight="1">
-      <c r="A239" s="12"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="12"/>
-      <c r="D239" s="12"/>
-    </row>
-    <row r="240" ht="12.75" customHeight="1">
-      <c r="A240" s="12"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="12"/>
-      <c r="D240" s="12"/>
-    </row>
-    <row r="241" ht="12.75" customHeight="1">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-    </row>
-    <row r="242" ht="12.75" customHeight="1">
-      <c r="A242" s="12"/>
-      <c r="B242" s="12"/>
-      <c r="C242" s="12"/>
-      <c r="D242" s="12"/>
-    </row>
-    <row r="243" ht="12.75" customHeight="1">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-    </row>
-    <row r="244" ht="12.75" customHeight="1">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-    </row>
-    <row r="245" ht="12.75" customHeight="1">
-      <c r="A245" s="12"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
-    </row>
-    <row r="246" ht="12.75" customHeight="1">
-      <c r="A246" s="12"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="12"/>
-      <c r="D246" s="12"/>
-    </row>
-    <row r="247" ht="12.75" customHeight="1">
-      <c r="A247" s="12"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="12"/>
-      <c r="D247" s="12"/>
+    <row r="50" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+    </row>
+    <row r="51" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+    </row>
+    <row r="52" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+    </row>
+    <row r="53" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+    </row>
+    <row r="54" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+    </row>
+    <row r="55" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+    </row>
+    <row r="56" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+    </row>
+    <row r="57" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+    </row>
+    <row r="58" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+    </row>
+    <row r="59" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+    </row>
+    <row r="60" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+    </row>
+    <row r="61" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+    </row>
+    <row r="64" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+    </row>
+    <row r="66" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+    </row>
+    <row r="67" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+    </row>
+    <row r="68" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+    </row>
+    <row r="71" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+    </row>
+    <row r="72" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+    </row>
+    <row r="73" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+    </row>
+    <row r="74" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+    </row>
+    <row r="75" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A75" s="22"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A76" s="22"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="22"/>
+      <c r="D76" s="22"/>
+    </row>
+    <row r="77" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A77" s="22"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="22"/>
+      <c r="D77" s="22"/>
+    </row>
+    <row r="78" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A78" s="22"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="22"/>
+      <c r="D78" s="22"/>
+    </row>
+    <row r="79" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A79" s="22"/>
+      <c r="B79" s="22"/>
+      <c r="C79" s="22"/>
+      <c r="D79" s="22"/>
+    </row>
+    <row r="80" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A80" s="22"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="22"/>
+      <c r="D80" s="22"/>
+    </row>
+    <row r="81" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A81" s="22"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="22"/>
+      <c r="D81" s="22"/>
+    </row>
+    <row r="82" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A82" s="22"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="22"/>
+      <c r="D82" s="22"/>
+    </row>
+    <row r="83" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A83" s="22"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+    </row>
+    <row r="84" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A84" s="22"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+    </row>
+    <row r="85" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A85" s="22"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+    </row>
+    <row r="86" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A86" s="22"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="22"/>
+      <c r="D86" s="22"/>
+    </row>
+    <row r="87" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A87" s="22"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="22"/>
+      <c r="D87" s="22"/>
+    </row>
+    <row r="88" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A88" s="22"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+    </row>
+    <row r="89" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A89" s="22"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+    </row>
+    <row r="90" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A90" s="22"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="22"/>
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A91" s="22"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="22"/>
+      <c r="D91" s="22"/>
+    </row>
+    <row r="92" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A92" s="22"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="22"/>
+      <c r="D92" s="22"/>
+    </row>
+    <row r="93" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A93" s="22"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="22"/>
+      <c r="D93" s="22"/>
+    </row>
+    <row r="94" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A94" s="22"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="22"/>
+      <c r="D94" s="22"/>
+    </row>
+    <row r="95" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A95" s="22"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="22"/>
+      <c r="D95" s="22"/>
+    </row>
+    <row r="96" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A96" s="22"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="22"/>
+      <c r="D96" s="22"/>
+    </row>
+    <row r="97" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A97" s="22"/>
+      <c r="B97" s="22"/>
+      <c r="C97" s="22"/>
+      <c r="D97" s="22"/>
+    </row>
+    <row r="98" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A98" s="22"/>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+    </row>
+    <row r="99" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A99" s="22"/>
+      <c r="B99" s="22"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+    </row>
+    <row r="100" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A100" s="22"/>
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+    </row>
+    <row r="101" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A101" s="22"/>
+      <c r="B101" s="22"/>
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+    </row>
+    <row r="102" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A102" s="22"/>
+      <c r="B102" s="22"/>
+      <c r="C102" s="22"/>
+      <c r="D102" s="22"/>
+    </row>
+    <row r="103" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A103" s="22"/>
+      <c r="B103" s="22"/>
+      <c r="C103" s="22"/>
+      <c r="D103" s="22"/>
+    </row>
+    <row r="104" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A104" s="22"/>
+      <c r="B104" s="22"/>
+      <c r="C104" s="22"/>
+      <c r="D104" s="22"/>
+    </row>
+    <row r="105" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A105" s="22"/>
+      <c r="B105" s="22"/>
+      <c r="C105" s="22"/>
+      <c r="D105" s="22"/>
+    </row>
+    <row r="106" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A106" s="22"/>
+      <c r="B106" s="22"/>
+      <c r="C106" s="22"/>
+      <c r="D106" s="22"/>
+    </row>
+    <row r="107" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A107" s="22"/>
+      <c r="B107" s="22"/>
+      <c r="C107" s="22"/>
+      <c r="D107" s="22"/>
+    </row>
+    <row r="108" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A108" s="22"/>
+      <c r="B108" s="22"/>
+      <c r="C108" s="22"/>
+      <c r="D108" s="22"/>
+    </row>
+    <row r="109" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A109" s="22"/>
+      <c r="B109" s="22"/>
+      <c r="C109" s="22"/>
+      <c r="D109" s="22"/>
+    </row>
+    <row r="110" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A110" s="22"/>
+      <c r="B110" s="22"/>
+      <c r="C110" s="22"/>
+      <c r="D110" s="22"/>
+    </row>
+    <row r="111" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A111" s="22"/>
+      <c r="B111" s="22"/>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+    </row>
+    <row r="112" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A112" s="22"/>
+      <c r="B112" s="22"/>
+      <c r="C112" s="22"/>
+      <c r="D112" s="22"/>
+    </row>
+    <row r="113" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A113" s="22"/>
+      <c r="B113" s="22"/>
+      <c r="C113" s="22"/>
+      <c r="D113" s="22"/>
+    </row>
+    <row r="114" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A114" s="22"/>
+      <c r="B114" s="22"/>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A115" s="22"/>
+      <c r="B115" s="22"/>
+      <c r="C115" s="22"/>
+      <c r="D115" s="22"/>
+    </row>
+    <row r="116" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A116" s="22"/>
+      <c r="B116" s="22"/>
+      <c r="C116" s="22"/>
+      <c r="D116" s="22"/>
+    </row>
+    <row r="117" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A117" s="22"/>
+      <c r="B117" s="22"/>
+      <c r="C117" s="22"/>
+      <c r="D117" s="22"/>
+    </row>
+    <row r="118" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A118" s="22"/>
+      <c r="B118" s="22"/>
+      <c r="C118" s="22"/>
+      <c r="D118" s="22"/>
+    </row>
+    <row r="119" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A119" s="22"/>
+      <c r="B119" s="22"/>
+      <c r="C119" s="22"/>
+      <c r="D119" s="22"/>
+    </row>
+    <row r="120" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A120" s="22"/>
+      <c r="B120" s="22"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
+    </row>
+    <row r="121" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A121" s="22"/>
+      <c r="B121" s="22"/>
+      <c r="C121" s="22"/>
+      <c r="D121" s="22"/>
+    </row>
+    <row r="122" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A122" s="22"/>
+      <c r="B122" s="22"/>
+      <c r="C122" s="22"/>
+      <c r="D122" s="22"/>
+    </row>
+    <row r="123" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A123" s="22"/>
+      <c r="B123" s="22"/>
+      <c r="C123" s="22"/>
+      <c r="D123" s="22"/>
+    </row>
+    <row r="124" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A124" s="22"/>
+      <c r="B124" s="22"/>
+      <c r="C124" s="22"/>
+      <c r="D124" s="22"/>
+    </row>
+    <row r="125" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A125" s="22"/>
+      <c r="B125" s="22"/>
+      <c r="C125" s="22"/>
+      <c r="D125" s="22"/>
+    </row>
+    <row r="126" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A126" s="22"/>
+      <c r="B126" s="22"/>
+      <c r="C126" s="22"/>
+      <c r="D126" s="22"/>
+    </row>
+    <row r="127" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A127" s="22"/>
+      <c r="B127" s="22"/>
+      <c r="C127" s="22"/>
+      <c r="D127" s="22"/>
+    </row>
+    <row r="128" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A128" s="22"/>
+      <c r="B128" s="22"/>
+      <c r="C128" s="22"/>
+      <c r="D128" s="22"/>
+    </row>
+    <row r="129" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A129" s="22"/>
+      <c r="B129" s="22"/>
+      <c r="C129" s="22"/>
+      <c r="D129" s="22"/>
+    </row>
+    <row r="130" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A130" s="22"/>
+      <c r="B130" s="22"/>
+      <c r="C130" s="22"/>
+      <c r="D130" s="22"/>
+    </row>
+    <row r="131" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A131" s="22"/>
+      <c r="B131" s="22"/>
+      <c r="C131" s="22"/>
+      <c r="D131" s="22"/>
+    </row>
+    <row r="132" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A132" s="22"/>
+      <c r="B132" s="22"/>
+      <c r="C132" s="22"/>
+      <c r="D132" s="22"/>
+    </row>
+    <row r="133" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A133" s="22"/>
+      <c r="B133" s="22"/>
+      <c r="C133" s="22"/>
+      <c r="D133" s="22"/>
+    </row>
+    <row r="134" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A134" s="22"/>
+      <c r="B134" s="22"/>
+      <c r="C134" s="22"/>
+      <c r="D134" s="22"/>
+    </row>
+    <row r="135" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A135" s="22"/>
+      <c r="B135" s="22"/>
+      <c r="C135" s="22"/>
+      <c r="D135" s="22"/>
+    </row>
+    <row r="136" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A136" s="22"/>
+      <c r="B136" s="22"/>
+      <c r="C136" s="22"/>
+      <c r="D136" s="22"/>
+    </row>
+    <row r="137" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A137" s="22"/>
+      <c r="B137" s="22"/>
+      <c r="C137" s="22"/>
+      <c r="D137" s="22"/>
+    </row>
+    <row r="138" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A138" s="22"/>
+      <c r="B138" s="22"/>
+      <c r="C138" s="22"/>
+      <c r="D138" s="22"/>
+    </row>
+    <row r="139" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A139" s="22"/>
+      <c r="B139" s="22"/>
+      <c r="C139" s="22"/>
+      <c r="D139" s="22"/>
+    </row>
+    <row r="140" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A140" s="22"/>
+      <c r="B140" s="22"/>
+      <c r="C140" s="22"/>
+      <c r="D140" s="22"/>
+    </row>
+    <row r="141" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A141" s="22"/>
+      <c r="B141" s="22"/>
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+    </row>
+    <row r="142" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A142" s="22"/>
+      <c r="B142" s="22"/>
+      <c r="C142" s="22"/>
+      <c r="D142" s="22"/>
+    </row>
+    <row r="143" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A143" s="22"/>
+      <c r="B143" s="22"/>
+      <c r="C143" s="22"/>
+      <c r="D143" s="22"/>
+    </row>
+    <row r="144" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A144" s="22"/>
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="22"/>
+    </row>
+    <row r="145" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A145" s="22"/>
+      <c r="B145" s="22"/>
+      <c r="C145" s="22"/>
+      <c r="D145" s="22"/>
+    </row>
+    <row r="146" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A146" s="22"/>
+      <c r="B146" s="22"/>
+      <c r="C146" s="22"/>
+      <c r="D146" s="22"/>
+    </row>
+    <row r="147" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A147" s="22"/>
+      <c r="B147" s="22"/>
+      <c r="C147" s="22"/>
+      <c r="D147" s="22"/>
+    </row>
+    <row r="148" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A148" s="22"/>
+      <c r="B148" s="22"/>
+      <c r="C148" s="22"/>
+      <c r="D148" s="22"/>
+    </row>
+    <row r="149" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A149" s="22"/>
+      <c r="B149" s="22"/>
+      <c r="C149" s="22"/>
+      <c r="D149" s="22"/>
+    </row>
+    <row r="150" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A150" s="22"/>
+      <c r="B150" s="22"/>
+      <c r="C150" s="22"/>
+      <c r="D150" s="22"/>
+    </row>
+    <row r="151" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A151" s="22"/>
+      <c r="B151" s="22"/>
+      <c r="C151" s="22"/>
+      <c r="D151" s="22"/>
+    </row>
+    <row r="152" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A152" s="22"/>
+      <c r="B152" s="22"/>
+      <c r="C152" s="22"/>
+      <c r="D152" s="22"/>
+    </row>
+    <row r="153" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A153" s="22"/>
+      <c r="B153" s="22"/>
+      <c r="C153" s="22"/>
+      <c r="D153" s="22"/>
+    </row>
+    <row r="154" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A154" s="22"/>
+      <c r="B154" s="22"/>
+      <c r="C154" s="22"/>
+      <c r="D154" s="22"/>
+    </row>
+    <row r="155" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A155" s="22"/>
+      <c r="B155" s="22"/>
+      <c r="C155" s="22"/>
+      <c r="D155" s="22"/>
+    </row>
+    <row r="156" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A156" s="22"/>
+      <c r="B156" s="22"/>
+      <c r="C156" s="22"/>
+      <c r="D156" s="22"/>
+    </row>
+    <row r="157" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A157" s="22"/>
+      <c r="B157" s="22"/>
+      <c r="C157" s="22"/>
+      <c r="D157" s="22"/>
+    </row>
+    <row r="158" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A158" s="22"/>
+      <c r="B158" s="22"/>
+      <c r="C158" s="22"/>
+      <c r="D158" s="22"/>
+    </row>
+    <row r="159" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A159" s="22"/>
+      <c r="B159" s="22"/>
+      <c r="C159" s="22"/>
+      <c r="D159" s="22"/>
+    </row>
+    <row r="160" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A160" s="22"/>
+      <c r="B160" s="22"/>
+      <c r="C160" s="22"/>
+      <c r="D160" s="22"/>
+    </row>
+    <row r="161" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A161" s="22"/>
+      <c r="B161" s="22"/>
+      <c r="C161" s="22"/>
+      <c r="D161" s="22"/>
+    </row>
+    <row r="162" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A162" s="22"/>
+      <c r="B162" s="22"/>
+      <c r="C162" s="22"/>
+      <c r="D162" s="22"/>
+    </row>
+    <row r="163" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A163" s="22"/>
+      <c r="B163" s="22"/>
+      <c r="C163" s="22"/>
+      <c r="D163" s="22"/>
+    </row>
+    <row r="164" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A164" s="22"/>
+      <c r="B164" s="22"/>
+      <c r="C164" s="22"/>
+      <c r="D164" s="22"/>
+    </row>
+    <row r="165" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A165" s="22"/>
+      <c r="B165" s="22"/>
+      <c r="C165" s="22"/>
+      <c r="D165" s="22"/>
+    </row>
+    <row r="166" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A166" s="22"/>
+      <c r="B166" s="22"/>
+      <c r="C166" s="22"/>
+      <c r="D166" s="22"/>
+    </row>
+    <row r="167" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A167" s="22"/>
+      <c r="B167" s="22"/>
+      <c r="C167" s="22"/>
+      <c r="D167" s="22"/>
+    </row>
+    <row r="168" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A168" s="22"/>
+      <c r="B168" s="22"/>
+      <c r="C168" s="22"/>
+      <c r="D168" s="22"/>
+    </row>
+    <row r="169" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A169" s="22"/>
+      <c r="B169" s="22"/>
+      <c r="C169" s="22"/>
+      <c r="D169" s="22"/>
+    </row>
+    <row r="170" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A170" s="22"/>
+      <c r="B170" s="22"/>
+      <c r="C170" s="22"/>
+      <c r="D170" s="22"/>
+    </row>
+    <row r="171" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A171" s="22"/>
+      <c r="B171" s="22"/>
+      <c r="C171" s="22"/>
+      <c r="D171" s="22"/>
+    </row>
+    <row r="172" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A172" s="22"/>
+      <c r="B172" s="22"/>
+      <c r="C172" s="22"/>
+      <c r="D172" s="22"/>
+    </row>
+    <row r="173" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A173" s="22"/>
+      <c r="B173" s="22"/>
+      <c r="C173" s="22"/>
+      <c r="D173" s="22"/>
+    </row>
+    <row r="174" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A174" s="22"/>
+      <c r="B174" s="22"/>
+      <c r="C174" s="22"/>
+      <c r="D174" s="22"/>
+    </row>
+    <row r="175" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A175" s="22"/>
+      <c r="B175" s="22"/>
+      <c r="C175" s="22"/>
+      <c r="D175" s="22"/>
+    </row>
+    <row r="176" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A176" s="22"/>
+      <c r="B176" s="22"/>
+      <c r="C176" s="22"/>
+      <c r="D176" s="22"/>
+    </row>
+    <row r="177" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A177" s="22"/>
+      <c r="B177" s="22"/>
+      <c r="C177" s="22"/>
+      <c r="D177" s="22"/>
+    </row>
+    <row r="178" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A178" s="22"/>
+      <c r="B178" s="22"/>
+      <c r="C178" s="22"/>
+      <c r="D178" s="22"/>
+    </row>
+    <row r="179" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A179" s="22"/>
+      <c r="B179" s="22"/>
+      <c r="C179" s="22"/>
+      <c r="D179" s="22"/>
+    </row>
+    <row r="180" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A180" s="22"/>
+      <c r="B180" s="22"/>
+      <c r="C180" s="22"/>
+      <c r="D180" s="22"/>
+    </row>
+    <row r="181" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A181" s="22"/>
+      <c r="B181" s="22"/>
+      <c r="C181" s="22"/>
+      <c r="D181" s="22"/>
+    </row>
+    <row r="182" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A182" s="22"/>
+      <c r="B182" s="22"/>
+      <c r="C182" s="22"/>
+      <c r="D182" s="22"/>
+    </row>
+    <row r="183" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A183" s="22"/>
+      <c r="B183" s="22"/>
+      <c r="C183" s="22"/>
+      <c r="D183" s="22"/>
+    </row>
+    <row r="184" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A184" s="22"/>
+      <c r="B184" s="22"/>
+      <c r="C184" s="22"/>
+      <c r="D184" s="22"/>
+    </row>
+    <row r="185" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A185" s="22"/>
+      <c r="B185" s="22"/>
+      <c r="C185" s="22"/>
+      <c r="D185" s="22"/>
+    </row>
+    <row r="186" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A186" s="22"/>
+      <c r="B186" s="22"/>
+      <c r="C186" s="22"/>
+      <c r="D186" s="22"/>
+    </row>
+    <row r="187" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A187" s="22"/>
+      <c r="B187" s="22"/>
+      <c r="C187" s="22"/>
+      <c r="D187" s="22"/>
+    </row>
+    <row r="188" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A188" s="22"/>
+      <c r="B188" s="22"/>
+      <c r="C188" s="22"/>
+      <c r="D188" s="22"/>
+    </row>
+    <row r="189" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A189" s="22"/>
+      <c r="B189" s="22"/>
+      <c r="C189" s="22"/>
+      <c r="D189" s="22"/>
+    </row>
+    <row r="190" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A190" s="22"/>
+      <c r="B190" s="22"/>
+      <c r="C190" s="22"/>
+      <c r="D190" s="22"/>
+    </row>
+    <row r="191" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A191" s="22"/>
+      <c r="B191" s="22"/>
+      <c r="C191" s="22"/>
+      <c r="D191" s="22"/>
+    </row>
+    <row r="192" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A192" s="22"/>
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+      <c r="D192" s="22"/>
+    </row>
+    <row r="193" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A193" s="22"/>
+      <c r="B193" s="22"/>
+      <c r="C193" s="22"/>
+      <c r="D193" s="22"/>
+    </row>
+    <row r="194" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A194" s="22"/>
+      <c r="B194" s="22"/>
+      <c r="C194" s="22"/>
+      <c r="D194" s="22"/>
+    </row>
+    <row r="195" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A195" s="22"/>
+      <c r="B195" s="22"/>
+      <c r="C195" s="22"/>
+      <c r="D195" s="22"/>
+    </row>
+    <row r="196" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A196" s="22"/>
+      <c r="B196" s="22"/>
+      <c r="C196" s="22"/>
+      <c r="D196" s="22"/>
+    </row>
+    <row r="197" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A197" s="22"/>
+      <c r="B197" s="22"/>
+      <c r="C197" s="22"/>
+      <c r="D197" s="22"/>
+    </row>
+    <row r="198" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A198" s="22"/>
+      <c r="B198" s="22"/>
+      <c r="C198" s="22"/>
+      <c r="D198" s="22"/>
+    </row>
+    <row r="199" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A199" s="22"/>
+      <c r="B199" s="22"/>
+      <c r="C199" s="22"/>
+      <c r="D199" s="22"/>
+    </row>
+    <row r="200" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A200" s="22"/>
+      <c r="B200" s="22"/>
+      <c r="C200" s="22"/>
+      <c r="D200" s="22"/>
+    </row>
+    <row r="201" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A201" s="22"/>
+      <c r="B201" s="22"/>
+      <c r="C201" s="22"/>
+      <c r="D201" s="22"/>
+    </row>
+    <row r="202" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A202" s="22"/>
+      <c r="B202" s="22"/>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+    </row>
+    <row r="203" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A203" s="22"/>
+      <c r="B203" s="22"/>
+      <c r="C203" s="22"/>
+      <c r="D203" s="22"/>
+    </row>
+    <row r="204" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A204" s="22"/>
+      <c r="B204" s="22"/>
+      <c r="C204" s="22"/>
+      <c r="D204" s="22"/>
+    </row>
+    <row r="205" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A205" s="22"/>
+      <c r="B205" s="22"/>
+      <c r="C205" s="22"/>
+      <c r="D205" s="22"/>
+    </row>
+    <row r="206" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A206" s="22"/>
+      <c r="B206" s="22"/>
+      <c r="C206" s="22"/>
+      <c r="D206" s="22"/>
+    </row>
+    <row r="207" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A207" s="22"/>
+      <c r="B207" s="22"/>
+      <c r="C207" s="22"/>
+      <c r="D207" s="22"/>
+    </row>
+    <row r="208" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A208" s="22"/>
+      <c r="B208" s="22"/>
+      <c r="C208" s="22"/>
+      <c r="D208" s="22"/>
+    </row>
+    <row r="209" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A209" s="22"/>
+      <c r="B209" s="22"/>
+      <c r="C209" s="22"/>
+      <c r="D209" s="22"/>
+    </row>
+    <row r="210" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A210" s="22"/>
+      <c r="B210" s="22"/>
+      <c r="C210" s="22"/>
+      <c r="D210" s="22"/>
+    </row>
+    <row r="211" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A211" s="22"/>
+      <c r="B211" s="22"/>
+      <c r="C211" s="22"/>
+      <c r="D211" s="22"/>
+    </row>
+    <row r="212" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A212" s="22"/>
+      <c r="B212" s="22"/>
+      <c r="C212" s="22"/>
+      <c r="D212" s="22"/>
+    </row>
+    <row r="213" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A213" s="22"/>
+      <c r="B213" s="22"/>
+      <c r="C213" s="22"/>
+      <c r="D213" s="22"/>
+    </row>
+    <row r="214" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A214" s="22"/>
+      <c r="B214" s="22"/>
+      <c r="C214" s="22"/>
+      <c r="D214" s="22"/>
+    </row>
+    <row r="215" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A215" s="22"/>
+      <c r="B215" s="22"/>
+      <c r="C215" s="22"/>
+      <c r="D215" s="22"/>
+    </row>
+    <row r="216" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A216" s="22"/>
+      <c r="B216" s="22"/>
+      <c r="C216" s="22"/>
+      <c r="D216" s="22"/>
+    </row>
+    <row r="217" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A217" s="22"/>
+      <c r="B217" s="22"/>
+      <c r="C217" s="22"/>
+      <c r="D217" s="22"/>
+    </row>
+    <row r="218" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A218" s="22"/>
+      <c r="B218" s="22"/>
+      <c r="C218" s="22"/>
+      <c r="D218" s="22"/>
+    </row>
+    <row r="219" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A219" s="22"/>
+      <c r="B219" s="22"/>
+      <c r="C219" s="22"/>
+      <c r="D219" s="22"/>
+    </row>
+    <row r="220" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A220" s="22"/>
+      <c r="B220" s="22"/>
+      <c r="C220" s="22"/>
+      <c r="D220" s="22"/>
+    </row>
+    <row r="221" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A221" s="22"/>
+      <c r="B221" s="22"/>
+      <c r="C221" s="22"/>
+      <c r="D221" s="22"/>
+    </row>
+    <row r="222" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A222" s="22"/>
+      <c r="B222" s="22"/>
+      <c r="C222" s="22"/>
+      <c r="D222" s="22"/>
+    </row>
+    <row r="223" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A223" s="22"/>
+      <c r="B223" s="22"/>
+      <c r="C223" s="22"/>
+      <c r="D223" s="22"/>
+    </row>
+    <row r="224" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A224" s="22"/>
+      <c r="B224" s="22"/>
+      <c r="C224" s="22"/>
+      <c r="D224" s="22"/>
+    </row>
+    <row r="225" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A225" s="22"/>
+      <c r="B225" s="22"/>
+      <c r="C225" s="22"/>
+      <c r="D225" s="22"/>
+    </row>
+    <row r="226" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A226" s="22"/>
+      <c r="B226" s="22"/>
+      <c r="C226" s="22"/>
+      <c r="D226" s="22"/>
+    </row>
+    <row r="227" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A227" s="22"/>
+      <c r="B227" s="22"/>
+      <c r="C227" s="22"/>
+      <c r="D227" s="22"/>
+    </row>
+    <row r="228" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A228" s="22"/>
+      <c r="B228" s="22"/>
+      <c r="C228" s="22"/>
+      <c r="D228" s="22"/>
+    </row>
+    <row r="229" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A229" s="22"/>
+      <c r="B229" s="22"/>
+      <c r="C229" s="22"/>
+      <c r="D229" s="22"/>
+    </row>
+    <row r="230" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A230" s="22"/>
+      <c r="B230" s="22"/>
+      <c r="C230" s="22"/>
+      <c r="D230" s="22"/>
+    </row>
+    <row r="231" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A231" s="22"/>
+      <c r="B231" s="22"/>
+      <c r="C231" s="22"/>
+      <c r="D231" s="22"/>
+    </row>
+    <row r="232" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A232" s="22"/>
+      <c r="B232" s="22"/>
+      <c r="C232" s="22"/>
+      <c r="D232" s="22"/>
+    </row>
+    <row r="233" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A233" s="22"/>
+      <c r="B233" s="22"/>
+      <c r="C233" s="22"/>
+      <c r="D233" s="22"/>
+    </row>
+    <row r="234" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A234" s="22"/>
+      <c r="B234" s="22"/>
+      <c r="C234" s="22"/>
+      <c r="D234" s="22"/>
+    </row>
+    <row r="235" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A235" s="22"/>
+      <c r="B235" s="22"/>
+      <c r="C235" s="22"/>
+      <c r="D235" s="22"/>
+    </row>
+    <row r="236" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A236" s="22"/>
+      <c r="B236" s="22"/>
+      <c r="C236" s="22"/>
+      <c r="D236" s="22"/>
+    </row>
+    <row r="237" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A237" s="22"/>
+      <c r="B237" s="22"/>
+      <c r="C237" s="22"/>
+      <c r="D237" s="22"/>
+    </row>
+    <row r="238" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A238" s="22"/>
+      <c r="B238" s="22"/>
+      <c r="C238" s="22"/>
+      <c r="D238" s="22"/>
+    </row>
+    <row r="239" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A239" s="22"/>
+      <c r="B239" s="22"/>
+      <c r="C239" s="22"/>
+      <c r="D239" s="22"/>
+    </row>
+    <row r="240" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A240" s="22"/>
+      <c r="B240" s="22"/>
+      <c r="C240" s="22"/>
+      <c r="D240" s="22"/>
+    </row>
+    <row r="241" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A241" s="22"/>
+      <c r="B241" s="22"/>
+      <c r="C241" s="22"/>
+      <c r="D241" s="22"/>
+    </row>
+    <row r="242" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A242" s="22"/>
+      <c r="B242" s="22"/>
+      <c r="C242" s="22"/>
+      <c r="D242" s="22"/>
+    </row>
+    <row r="243" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A243" s="22"/>
+      <c r="B243" s="22"/>
+      <c r="C243" s="22"/>
+      <c r="D243" s="22"/>
+    </row>
+    <row r="244" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A244" s="22"/>
+      <c r="B244" s="22"/>
+      <c r="C244" s="22"/>
+      <c r="D244" s="22"/>
+    </row>
+    <row r="245" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A245" s="22"/>
+      <c r="B245" s="22"/>
+      <c r="C245" s="22"/>
+      <c r="D245" s="22"/>
+    </row>
+    <row r="246" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A246" s="22"/>
+      <c r="B246" s="22"/>
+      <c r="C246" s="22"/>
+      <c r="D246" s="22"/>
+    </row>
+    <row r="247" ht="12.75" customHeight="1" spans="1:4">
+      <c r="A247" s="22"/>
+      <c r="B247" s="22"/>
+      <c r="C247" s="22"/>
+      <c r="D247" s="22"/>
     </row>
     <row r="248" ht="15.75" customHeight="1"/>
     <row r="249" ht="15.75" customHeight="1"/>
@@ -4927,56 +5511,48 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:A1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="58.43"/>
-    <col customWidth="1" min="2" max="6" width="12.29"/>
+    <col min="1" max="1" width="58.4285714285714" customWidth="1"/>
+    <col min="2" max="6" width="12.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="13" t="s">
+    <row r="1" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="14" t="s">
+    <row r="2" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A2" s="15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>96</v>
-      </c>
+    <row r="3" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A3" s="16"/>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A5" s="16"/>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" spans="1:1">
+      <c r="A6" s="16"/>
     </row>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1"/>
@@ -5974,331 +6550,329 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A5"/>
-    <hyperlink r:id="rId2" ref="A6"/>
+    <hyperlink ref="A2" r:id="rId1" display="sayyedimran.mohd@gmail.com"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="1.05277777777778" footer="0.0" header="0.0" left="0.7875" right="0.7875" top="1.05277777777778"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="48.71"/>
-    <col customWidth="1" min="2" max="2" width="55.57"/>
-    <col customWidth="1" min="3" max="3" width="54.57"/>
-    <col customWidth="1" min="4" max="4" width="52.14"/>
-    <col customWidth="1" min="5" max="5" width="54.57"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col min="1" max="1" width="48.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="55.5714285714286" customWidth="1"/>
+    <col min="3" max="3" width="54.5714285714286" customWidth="1"/>
+    <col min="4" max="4" width="52.1428571428571" customWidth="1"/>
+    <col min="5" max="5" width="54.5714285714286" customWidth="1"/>
+    <col min="6" max="6" width="14.4285714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="16">
-        <v>6.0</v>
-      </c>
-      <c r="B1" s="16">
-        <v>7.0</v>
-      </c>
-      <c r="C1" s="16">
-        <v>8.0</v>
-      </c>
-      <c r="D1" s="16">
-        <v>9.0</v>
-      </c>
-      <c r="E1" s="16">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="17" t="s">
+    <row r="1" ht="14" spans="1:5">
+      <c r="A1" s="5">
+        <v>6</v>
+      </c>
+      <c r="B1" s="5">
+        <v>7</v>
+      </c>
+      <c r="C1" s="5">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5">
+        <v>9</v>
+      </c>
+      <c r="E1" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" ht="16.8" spans="1:5">
+      <c r="A2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="3" ht="16.8" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="B3" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="C3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="D3" s="11" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="17" t="s">
+      <c r="E3" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="4" ht="14" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="B4" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="C4" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="D4" s="6" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="17" t="s">
+      <c r="E4" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="23" t="s">
+    </row>
+    <row r="5" ht="16.8" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="B5" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="C5" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="D5" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="17" t="s">
+      <c r="E5" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B5" s="21" t="s">
+    </row>
+    <row r="6" ht="14" spans="1:5">
+      <c r="A6" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="B6" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="C6" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="D6" s="6" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="17" t="s">
+      <c r="E6" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="23" t="s">
+    </row>
+    <row r="7" ht="14" spans="1:5">
+      <c r="A7" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="B7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="C7" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="D7" s="6" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="17" t="s">
+      <c r="E7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B7" s="23" t="s">
+    </row>
+    <row r="8" ht="14" spans="1:5">
+      <c r="A8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="B8" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="C8" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="D8" s="6" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="17" t="s">
+      <c r="E8" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B8" s="23" t="s">
+    </row>
+    <row r="9" ht="14" spans="1:5">
+      <c r="A9" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="B9" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="C9" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="D9" s="6" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="17" t="s">
+      <c r="E9" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B9" s="23" t="s">
+    </row>
+    <row r="10" ht="14" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="B10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="C10" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="D10" s="6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="17" t="s">
+      <c r="E10" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B10" s="23" t="s">
+    </row>
+    <row r="11" ht="14" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="B11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="C11" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="D11" s="6" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="17" t="s">
+      <c r="E11" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="23" t="s">
+    </row>
+    <row r="12" ht="14" spans="1:5">
+      <c r="A12" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="B12" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="C12" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="D12" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="24" t="s">
+      <c r="E12" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="23" t="s">
+    </row>
+    <row r="13" ht="14" spans="1:5">
+      <c r="A13" s="13"/>
+      <c r="B13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D13" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E13" s="6" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="25"/>
-      <c r="B13" s="23" t="s">
+    <row r="14" ht="14" spans="1:5">
+      <c r="A14" s="13"/>
+      <c r="B14" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="13"/>
+      <c r="D14" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="E14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="E13" s="17" t="s">
+    </row>
+    <row r="15" ht="14" spans="1:5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="6" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="25"/>
-      <c r="B14" s="23" t="s">
+      <c r="E15" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="17" t="s">
+    </row>
+    <row r="16" ht="14" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E16" s="6" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="17" t="s">
+    <row r="17" ht="14" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E17" s="6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="17" t="s">
+    <row r="18" ht="14" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E18" s="6" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="17" t="s">
+    <row r="19" ht="14" spans="1:5">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E17" s="17" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="17" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" s="17" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="E21" s="17" t="s">
-        <v>167</v>
+    </row>
+    <row r="20" ht="14" spans="5:5">
+      <c r="E20" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="5:5">
+      <c r="E21" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1"/>
@@ -7281,786 +7855,786 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="47.29"/>
-    <col customWidth="1" min="2" max="2" width="41.71"/>
-    <col customWidth="1" min="3" max="3" width="41.0"/>
-    <col customWidth="1" min="4" max="4" width="30.57"/>
-    <col customWidth="1" min="5" max="5" width="27.43"/>
-    <col customWidth="1" min="6" max="6" width="44.14"/>
-    <col customWidth="1" min="7" max="7" width="33.57"/>
+    <col min="1" max="1" width="47.2857142857143" customWidth="1"/>
+    <col min="2" max="2" width="41.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="4" max="4" width="30.5714285714286" customWidth="1"/>
+    <col min="5" max="5" width="27.4285714285714" customWidth="1"/>
+    <col min="6" max="6" width="44.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="33.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="26" t="s">
+    <row r="1" ht="14" spans="1:26">
+      <c r="A1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="F1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="G1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" ht="14" spans="1:7">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="G2" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="26" t="s">
+    </row>
+    <row r="3" ht="14" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="E3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
-      <c r="X1" s="27"/>
-      <c r="Y1" s="27"/>
-      <c r="Z1" s="27"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="G3" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" ht="14" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="5" ht="14" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" ht="14" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" ht="14" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" ht="14" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" ht="14" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" ht="14" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" ht="14" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" ht="14" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" ht="14" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" ht="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" ht="14" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" ht="14" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" ht="14" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" ht="14" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" ht="14" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" ht="14" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A27" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A45" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A51" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A53" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="2" t="s">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A54" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="2" t="s">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A55" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="2" t="s">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A56" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="2" t="s">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A57" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="2" t="s">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+    </row>
+    <row r="58" ht="15.75" customHeight="1" spans="1:7">
+      <c r="A58" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
     </row>
     <row r="59" ht="15.75" customHeight="1"/>
     <row r="60" ht="15.75" customHeight="1"/>
@@ -9005,9 +9579,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.984027777777778" footer="0.0" header="0.0" left="0.747916666666667" right="0.747916666666667" top="0.984027777777778"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>